--- a/2.1.darkwoods_beetle_ground_plots.xlsx
+++ b/2.1.darkwoods_beetle_ground_plots.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">pi_mpb_killed</t>
   </si>
   <si>
-    <t xml:space="preserve">pi_mpb_killed%</t>
+    <t xml:space="preserve">pi_mpb_killed_pc</t>
   </si>
   <si>
     <t xml:space="preserve">ndmi</t>
@@ -177,15 +177,14 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.45703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="4" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -232,25 +231,25 @@
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.17537001725943</v>
+        <v>47.3668213100947</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>2.35074003451886</v>
+        <v>75.4096132578456</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>-0.0529821999371052</v>
+        <v>-0.166336998343468</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>-3943.419921875</v>
+        <v>-3653.44995117188</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>8454.5849609375</v>
+        <v>8290.31518554688</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>16365</v>
+        <v>15922.0251464844</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -280,7 +279,7 @@
         <v>44.8282201597734</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>89.6564403195468</v>
+        <v>77.9482144081669</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>-0.163434997200966</v>
@@ -316,25 +315,25 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>47.3668213100947</v>
+        <v>42.2896190094521</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>94.7336426201894</v>
+        <v>80.3480178591308</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>-0.166336998343468</v>
+        <v>-0.15599699318409</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-3653.44995117188</v>
+        <v>-4056.72259521484</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8290.31518554688</v>
+        <v>8473.59497070313</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>15922.0251464844</v>
+        <v>16402.2250976563</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -358,25 +357,25 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>10.4631284723991</v>
+        <v>39.7510178591308</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>20.9262569447981</v>
+        <v>80.6718155584882</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>-0.117039002478123</v>
+        <v>-0.152827993035317</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3779.10754394531</v>
+        <v>-3477.70495605469</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8399.490234375</v>
+        <v>8063.40490722656</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>16154.4250488281</v>
+        <v>15530.9748535156</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -400,25 +399,25 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>12.4474495204142</v>
+        <v>37.2124167088095</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>24.8948990408285</v>
+        <v>80.7369574840845</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>-0.120993003249168</v>
+        <v>-0.151792004704475</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-4429.85748291016</v>
+        <v>-3575.55004882812</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8708.43530273437</v>
+        <v>8187.68994140625</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>16995.6252441406</v>
+        <v>15795.75</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -442,25 +441,25 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>15.6960379933792</v>
+        <v>34.6738155584882</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>31.3920759867583</v>
+        <v>81.2893700172594</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>-0.128451004624367</v>
+        <v>-0.140134006738663</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>-3957.17761230469</v>
+        <v>-4134.69506835938</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8498.86254882813</v>
+        <v>8744.240234375</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>16349.8251953125</v>
+        <v>16855.1005859375</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -484,25 +483,25 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>29.5966132578456</v>
+        <v>32.1352144081669</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>59.1932265156912</v>
+        <v>81.4756191353309</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>-0.138340994715691</v>
+        <v>-0.139293998479843</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4460.19494628906</v>
+        <v>-4820.72998046875</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8701.0625</v>
+        <v>9451.90234375</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>16966.8999023438</v>
+        <v>18098.7749023438</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -526,25 +525,25 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>27.0580121075243</v>
+        <v>29.5966132578456</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>54.1160242150486</v>
+        <v>81.6962208952268</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>-0.133031994104385</v>
+        <v>-0.138340994715691</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-4373.96008300781</v>
+        <v>-4460.19494628906</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8754.54736328125</v>
+        <v>8701.0625</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>17017.724609375</v>
+        <v>16966.8999023438</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -568,25 +567,25 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>32.1352144081669</v>
+        <v>27.0580121075243</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>64.2704288163338</v>
+        <v>82.4046190094521</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>-0.139293998479843</v>
+        <v>-0.133031994104385</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-4820.72998046875</v>
+        <v>-4373.96008300781</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9451.90234375</v>
+        <v>8754.54736328125</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>18098.7749023438</v>
+        <v>17017.724609375</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -610,25 +609,25 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>42.2896190094521</v>
+        <v>26.7821906400317</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>84.5792380189042</v>
+        <v>82.516768859463</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>-0.15599699318409</v>
+        <v>-0.130511999130249</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4056.72259521484</v>
+        <v>-5081.22009277344</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8473.59497070313</v>
+        <v>9102.19995117187</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>16402.2250976563</v>
+        <v>17824.400390625</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -652,25 +651,25 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>26.7821906400317</v>
+        <v>24.519410957203</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>53.5643812800634</v>
+        <v>82.8216273785474</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>-0.130511999130249</v>
+        <v>-0.129688993096352</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-5081.22009277344</v>
+        <v>-3796.73504638672</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9102.19995117187</v>
+        <v>8362.29760742187</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>17824.400390625</v>
+        <v>16114.6247558594</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -694,25 +693,25 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>34.6738155584882</v>
+        <v>15.6960379933792</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>69.3476311169764</v>
+        <v>83.0254167088095</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>-0.140134006738663</v>
+        <v>-0.128451004624367</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>-4134.69506835938</v>
+        <v>-3957.17761230469</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8744.240234375</v>
+        <v>8498.86254882813</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>16855.1005859375</v>
+        <v>16349.8251953125</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -736,25 +735,25 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B14" s="4" t="n">
-        <v>8.94947148798914</v>
+        <v>15.0241928019693</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>17.8989429759783</v>
+        <v>84.9091941165153</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>-0.115543000400066</v>
+        <v>-0.126315996050835</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3873.67498779297</v>
+        <v>-4519.45875366211</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8474.5673828125</v>
+        <v>8898.47551682692</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>16306.6499023438</v>
+        <v>17244.308445012</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -778,25 +777,25 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>0.622957484084543</v>
+        <v>12.4474495204142</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>1.24591496816909</v>
+        <v>86.4397252412076</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>0.0332639999687672</v>
+        <v>-0.120993003249168</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-3904.09997558594</v>
+        <v>-4429.85748291016</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8437.044921875</v>
+        <v>8708.43530273437</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>16315.5251464844</v>
+        <v>16995.6252441406</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -826,7 +825,7 @@
         <v>12.2775414763885</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>24.5550829527771</v>
+        <v>86.7627074102368</v>
       </c>
       <c r="D16" s="3" t="n">
         <v>-0.118724003434181</v>
@@ -868,7 +867,7 @@
         <v>11.578429154288</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>23.156858308576</v>
+        <v>86.7801906400317</v>
       </c>
       <c r="D17" s="3" t="n">
         <v>-0.117417998611927</v>
@@ -904,25 +903,25 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>1.3616191353309</v>
+        <v>10.4631284723991</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>2.7232382706618</v>
+        <v>87.0560121075243</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>-0.0730312019586563</v>
+        <v>-0.117039002478123</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-3745.40747070312</v>
+        <v>-3779.10754394531</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8339.4599609375</v>
+        <v>8399.490234375</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>16030.3999023438</v>
+        <v>16154.4250488281</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -946,25 +945,25 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>1.58222089522678</v>
+        <v>8.94947148798914</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>3.16444179045356</v>
+        <v>88.3551928019693</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>-0.0888196974992752</v>
+        <v>-0.115543000400066</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>-3674.81500244141</v>
+        <v>-3873.67498779297</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8311.544921875</v>
+        <v>8474.5673828125</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>16015.3249511719</v>
+        <v>16306.6499023438</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -994,7 +993,7 @@
         <v>9.18144193758311</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>18.3628838751662</v>
+        <v>88.4778213100947</v>
       </c>
       <c r="D20" s="3" t="n">
         <v>-0.112493000924587</v>
@@ -1030,25 +1029,25 @@
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B21" s="4" t="n">
-        <v>2.40276885946298</v>
+        <v>6.64870741023682</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>4.80553771892595</v>
+        <v>89.0634714879892</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>-0.0932584032416344</v>
+        <v>-0.109407000243664</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-3804.39501953125</v>
+        <v>-4083.99499511719</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8367.4052734375</v>
+        <v>8570.20263671875</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>16144.6997070313</v>
+        <v>16574.6748046875</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1072,25 +1071,25 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B22" s="4" t="n">
-        <v>2.70762737854738</v>
+        <v>6.32572524120759</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>5.41525475709476</v>
+        <v>89.2954419375831</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>-0.0983740016818047</v>
+        <v>-0.107192002236843</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-3958.83001708984</v>
+        <v>-3918.42248535156</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8517.9599609375</v>
+        <v>8475.02001953125</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>16445.4504394531</v>
+        <v>16368.5751953125</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1120,7 +1119,7 @@
         <v>4.79519411651529</v>
       </c>
       <c r="C23" s="4" t="n">
-        <v>9.59038823303059</v>
+        <v>90.5771284723991</v>
       </c>
       <c r="D23" s="3" t="n">
         <v>-0.104301996529102</v>
@@ -1156,25 +1155,25 @@
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B24" s="4" t="n">
-        <v>6.32572524120759</v>
+        <v>2.70762737854738</v>
       </c>
       <c r="C24" s="4" t="n">
-        <v>12.6514504824152</v>
+        <v>90.6412201597734</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>-0.107192002236843</v>
+        <v>-0.0983740016818047</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-3918.42248535156</v>
+        <v>-3958.83001708984</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8475.02001953125</v>
+        <v>8517.9599609375</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>16368.5751953125</v>
+        <v>16445.4504394531</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1198,25 +1197,25 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B25" s="4" t="n">
-        <v>6.64870741023682</v>
+        <v>2.40276885946298</v>
       </c>
       <c r="C25" s="4" t="n">
-        <v>13.2974148204736</v>
+        <v>91.692429154288</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>-0.109407000243664</v>
+        <v>-0.0932584032416344</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>-4083.99499511719</v>
+        <v>-3804.39501953125</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8570.20263671875</v>
+        <v>8367.4052734375</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>16574.6748046875</v>
+        <v>16144.6997070313</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -1240,25 +1239,25 @@
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B26" s="4" t="n">
-        <v>24.519410957203</v>
+        <v>1.58222089522678</v>
       </c>
       <c r="C26" s="4" t="n">
-        <v>49.038821914406</v>
+        <v>92.3915414763885</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>-0.129688993096352</v>
+        <v>-0.0888196974992752</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-3796.73504638672</v>
+        <v>-3674.81500244141</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8362.29760742187</v>
+        <v>8311.544921875</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>16114.6247558594</v>
+        <v>16015.3249511719</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -1282,25 +1281,25 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B27" s="4" t="n">
-        <v>37.2124167088095</v>
+        <v>1.3616191353309</v>
       </c>
       <c r="C27" s="4" t="n">
-        <v>74.424833417619</v>
+        <v>92.5614495204142</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>-0.151792004704475</v>
+        <v>-0.0730312019586563</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-3575.55004882812</v>
+        <v>-3745.40747070312</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>8187.68994140625</v>
+        <v>8339.4599609375</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>15795.75</v>
+        <v>16030.3999023438</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -1324,25 +1323,25 @@
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B28" s="4" t="n">
-        <v>39.7510178591308</v>
+        <v>1.17537001725943</v>
       </c>
       <c r="C28" s="4" t="n">
-        <v>79.5020357182616</v>
+        <v>95.2830379933792</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>-0.152827993035317</v>
+        <v>-0.0529821999371052</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-3477.70495605469</v>
+        <v>-3943.419921875</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8063.40490722656</v>
+        <v>8454.5849609375</v>
       </c>
       <c r="G28" s="5" t="n">
-        <v>15530.9748535156</v>
+        <v>16365</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -1366,25 +1365,25 @@
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B29" s="4" t="n">
-        <v>15.0241928019693</v>
+        <v>0.622957484084543</v>
       </c>
       <c r="C29" s="4" t="n">
-        <v>30.0483856039385</v>
+        <v>97.850410957203</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>-0.126315996050835</v>
+        <v>0.0332639999687672</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4519.45875366211</v>
+        <v>-3904.09997558594</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8898.47551682692</v>
+        <v>8437.044921875</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>17244.308445012</v>
+        <v>16315.5251464844</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
